--- a/data/processed/Pesos_Tulumayo/__bbdd_revision__Tulumayo_incremento_Pesos.xlsx
+++ b/data/processed/Pesos_Tulumayo/__bbdd_revision__Tulumayo_incremento_Pesos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cesar_quezada\ProyectosIA\Proyectos_PALMAS\PROYECTO_01_analitica_descriptiva_TEA\data\processed\Pesos_Tulumayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F2396-0ADD-4570-90A1-9B0DB7321576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD5A406-5208-4143-9398-69595B938820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,9 +76,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,13 +193,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,9 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1954,129 +1955,129 @@
       </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C38" s="8">
+      <c r="C38" s="10">
         <v>8.6203310256586198E-5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="10">
         <v>1.86332426849456E-4</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="10">
         <v>1.5073267666389201E-4</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="10">
         <v>5.56087256634873E-4</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="10">
         <v>7.7696161352208595E-4</v>
       </c>
-      <c r="H38" s="8">
-        <v>4.6102892059476713E-4</v>
-      </c>
-      <c r="I38" s="8">
+      <c r="H38" s="10">
+        <v>4.6102892059476702E-4</v>
+      </c>
+      <c r="I38" s="10">
         <v>7.0105556142143605E-4</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="10">
         <v>5.3649843057078297E-4</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K38" s="10">
         <v>7.68188986223332E-4</v>
       </c>
-      <c r="L38" s="8">
-        <v>6.588401510055459E-4</v>
-      </c>
-      <c r="M38" s="8">
-        <v>6.7365278658984454E-4</v>
-      </c>
-      <c r="N38" s="8">
-        <v>3.7939245449023069E-5</v>
+      <c r="L38" s="10">
+        <v>6.5884015100554601E-4</v>
+      </c>
+      <c r="M38" s="10">
+        <v>6.7365278658984497E-4</v>
+      </c>
+      <c r="N38" s="10">
+        <v>3.7939245449023103E-5</v>
       </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>10</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>10</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>10</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="8">
         <v>10</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>10</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="8">
         <v>10</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>10</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="8">
         <v>10</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K39" s="8">
         <v>10</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L39" s="8">
         <v>10</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="8">
         <v>10</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <f>+(-1)*(C39*C38)/100</f>
         <v>-8.6203310256586194E-6</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <f>+(D39*D38)/100</f>
         <v>1.8633242684945598E-5</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <f t="shared" ref="E41:G41" si="6">+(-1)*(E39*E38)/100</f>
         <v>-1.5073267666389202E-5</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <f t="shared" si="6"/>
         <v>-5.5608725663487294E-5</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <f t="shared" si="6"/>
         <v>-7.7696161352208595E-5</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="9">
         <f t="shared" ref="H41:N41" si="7">+(-1)*(H39*H38)/100</f>
-        <v>-4.6102892059476716E-5</v>
-      </c>
-      <c r="I41" s="10">
+        <v>-4.6102892059476702E-5</v>
+      </c>
+      <c r="I41" s="9">
         <f t="shared" si="7"/>
         <v>-7.0105556142143602E-5</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="9">
         <f t="shared" si="7"/>
         <v>-5.3649843057078291E-5</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <f t="shared" si="7"/>
         <v>-7.6818898622333197E-5</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="9">
         <f t="shared" si="7"/>
-        <v>-6.588401510055459E-5</v>
-      </c>
-      <c r="M41" s="10">
+        <v>-6.5884015100554604E-5</v>
+      </c>
+      <c r="M41" s="9">
         <f t="shared" si="7"/>
-        <v>-6.7365278658984454E-5</v>
-      </c>
-      <c r="N41" s="10">
+        <v>-6.7365278658984494E-5</v>
+      </c>
+      <c r="N41" s="9">
         <f t="shared" si="7"/>
-        <v>-3.7939245449023072E-6</v>
+        <v>-3.7939245449023102E-6</v>
       </c>
     </row>
   </sheetData>
